--- a/dataAnalysis/dataAnalyis.xlsx
+++ b/dataAnalysis/dataAnalyis.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael Nguyen\Documents\GitHub\vrs-biped-robot\dataAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EBD5B0-CA04-4AD1-BABC-D57F1D4CB6DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B9A450-3327-47FA-97A2-D7C7B9FFDB1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12285" yWindow="2580" windowWidth="14310" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14490" yWindow="150" windowWidth="14310" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>Constants</t>
   </si>
@@ -36,21 +45,47 @@
     <t>L2 (mm)</t>
   </si>
   <si>
-    <t>Coordinates</t>
-  </si>
-  <si>
     <t>x (mm)</t>
   </si>
   <si>
-    <t>y (mm)</t>
+    <t>Left Leg Angles</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>z (mm)</t>
+  </si>
+  <si>
+    <t>Right Leg Angles</t>
+  </si>
+  <si>
+    <t>Take a step forward Coordinates</t>
+  </si>
+  <si>
+    <t>Take a step backward Coordinates</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -78,8 +113,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,35 +397,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>44.709388709999999</v>
       </c>
@@ -396,13 +439,101 @@
         <v>68.797074530000003</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
         <v>5</v>
       </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <f xml:space="preserve"> DEGREES(ATAN(E4/D4))</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D10" t="e">
+        <f>DEGREES(ACOS(B3^2+D4^2+E4^2-A3^2))</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <f>2*B3*SQRT(D4^2+E4^2)</f>
+        <v>194.58751170383727</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <f>(B3^2+D4^2+E4^2-A3^2)</f>
+        <v>2736.1080250644995</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <f>D15/D14</f>
+        <v>14.061066926169772</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D18" t="e">
+        <f>ACOS(D17)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F6:H6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/dataAnalysis/dataAnalyis.xlsx
+++ b/dataAnalysis/dataAnalyis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael Nguyen\Documents\GitHub\vrs-biped-robot\dataAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B9A450-3327-47FA-97A2-D7C7B9FFDB1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F82DF5-0C8A-43BE-8EC1-8C92CE5A3E86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14490" yWindow="150" windowWidth="14310" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -115,8 +115,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,7 +400,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,15 +421,15 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -456,26 +456,34 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D4">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>-30</v>
       </c>
       <c r="F4">
-        <f xml:space="preserve"> DEGREES(ATAN(E4/D4))</f>
-        <v>45</v>
+        <f>180  -DEGREES(ATAN(E4/D4)) - DEGREES(ACOS((D4^2+E4^2+B3^2-A3^2)/(2*B3*SQRT(D4^2+E4^2))))</f>
+        <v>195.69117153650657</v>
+      </c>
+      <c r="G4">
+        <f>180 -DEGREES(ACOS((D4^2+E4^2+B3^2-A3^2)/(2*B3*SQRT(D4^2+E4^2))))-DEGREES(ACOS((A3^2+B3^2-D4^2-E4^2)/(2*A3*B3)))+DEGREES(ATAN(D4/E4))</f>
+        <v>75.235967339595831</v>
+      </c>
+      <c r="H4">
+        <f>180-DEGREES(ACOS((A3^2+B3^2-D4^2-E4^2)/(2*A3*B3)))</f>
+        <v>149.54479580308927</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
@@ -494,38 +502,28 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D10" t="e">
-        <f>DEGREES(ACOS(B3^2+D4^2+E4^2-A3^2))</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D14">
-        <f>2*B3*SQRT(D4^2+E4^2)</f>
-        <v>194.58751170383727</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D15">
-        <f>(B3^2+D4^2+E4^2-A3^2)</f>
-        <v>2736.1080250644995</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D17">
-        <f>D15/D14</f>
-        <v>14.061066926169772</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D18" t="e">
-        <f>ACOS(D17)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E21" s="2"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <f>-DEGREES(ACOS((D4^2+E4^2+B3^2-A3^2)/(2*B3*SQRT(D4^2+E4^2))))</f>
+        <v>-36.832648902132071</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <f>-DEGREES(ACOS((A3^2+B3^2-D4^2-E4^2)/(2*A3*B3)))</f>
+        <v>-30.455204196910728</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/dataAnalysis/dataAnalyis.xlsx
+++ b/dataAnalysis/dataAnalyis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael Nguyen\Documents\GitHub\vrs-biped-robot\dataAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F82DF5-0C8A-43BE-8EC1-8C92CE5A3E86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D71FFD-A78A-4000-8C7F-3E4DF3711C35}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14490" yWindow="150" windowWidth="14310" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -400,7 +400,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,7 +433,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>44.709388709999999</v>
+        <v>50</v>
       </c>
       <c r="B3">
         <v>68.797074530000003</v>
@@ -456,22 +456,23 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D4">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>-30</v>
+        <f>-15</f>
+        <v>-15</v>
       </c>
       <c r="F4">
-        <f>180  -DEGREES(ATAN(E4/D4)) - DEGREES(ACOS((D4^2+E4^2+B3^2-A3^2)/(2*B3*SQRT(D4^2+E4^2))))</f>
-        <v>195.69117153650657</v>
+        <f>90  -DEGREES(ATAN(E4/D4)) - DEGREES(ACOS((D4^2+E4^2+B3^2-A3^2)/(2*B3*SQRT(D4^2+E4^2))))</f>
+        <v>93.057097909152048</v>
       </c>
       <c r="G4">
         <f>180 -DEGREES(ACOS((D4^2+E4^2+B3^2-A3^2)/(2*B3*SQRT(D4^2+E4^2))))-DEGREES(ACOS((A3^2+B3^2-D4^2-E4^2)/(2*A3*B3)))+DEGREES(ATAN(D4/E4))</f>
-        <v>75.235967339595831</v>
+        <v>76.901870423964795</v>
       </c>
       <c r="H4">
         <f>180-DEGREES(ACOS((A3^2+B3^2-D4^2-E4^2)/(2*A3*B3)))</f>
-        <v>149.54479580308927</v>
+        <v>163.84477251481275</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -508,18 +509,6 @@
       </c>
       <c r="E8">
         <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D11">
-        <f>-DEGREES(ACOS((D4^2+E4^2+B3^2-A3^2)/(2*B3*SQRT(D4^2+E4^2))))</f>
-        <v>-36.832648902132071</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D12">
-        <f>-DEGREES(ACOS((A3^2+B3^2-D4^2-E4^2)/(2*A3*B3)))</f>
-        <v>-30.455204196910728</v>
       </c>
     </row>
     <row r="21" spans="5:5" x14ac:dyDescent="0.25">
